--- a/com.ssidApp/src/main/resources/Book.xlsx
+++ b/com.ssidApp/src/main/resources/Book.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colbi\OneDrive\Desktop\Test_Android\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F51AEB-082B-43E2-AD55-82608C3BA28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4E24BEFC-6683-458B-8EC4-095A789A198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="812" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,8 @@
     <sheet name="MultiToken" sheetId="4" r:id="rId4"/>
     <sheet name="YIDINDJI" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J5"/>
 </workbook>
 </file>
 
@@ -1535,6 +1531,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1547,28 +1567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,7 +1579,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,9 +1592,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1822,9 +1818,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="D2:H23"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2124,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -2141,14 +2137,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -2163,13 +2159,13 @@
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2198,13 +2194,13 @@
       <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
@@ -2234,14 +2230,14 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
@@ -2292,62 +2288,62 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="49">
         <v>2.34</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:4" ht="15.75" customHeight="1"/>
@@ -3331,18 +3327,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" tooltip="mailto:vivek.sarawgi@squbix.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -3355,9 +3351,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3372,14 +3368,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
@@ -3394,13 +3390,13 @@
       <c r="D2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
@@ -3429,13 +3425,13 @@
       <c r="D4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
@@ -3465,14 +3461,14 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
@@ -3517,62 +3513,62 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="49">
         <v>1.34</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:4" ht="15.75" customHeight="1"/>
@@ -4556,18 +4552,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -4600,14 +4596,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -4622,13 +4618,13 @@
       <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -4657,13 +4653,13 @@
       <c r="D4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -4695,14 +4691,14 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -4754,77 +4750,77 @@
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="49">
         <v>2.34</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="A6" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4858,14 +4854,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -4880,13 +4876,13 @@
       <c r="D2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4915,13 +4911,13 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
@@ -4951,14 +4947,14 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
@@ -5009,77 +5005,77 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="65">
         <v>1.34</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" tooltip="mailto:tirix59303@100xbit.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>

--- a/com.ssidApp/src/main/resources/Book.xlsx
+++ b/com.ssidApp/src/main/resources/Book.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4E24BEFC-6683-458B-8EC4-095A789A198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9E2CCCE3-2B94-4619-9F14-88A3F50785F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="812" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="YIDINDJI" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J5"/>
+  <oleSize ref="A7:J10"/>
 </workbook>
 </file>
 
@@ -518,9 +518,6 @@
     <t>New ID</t>
   </si>
   <si>
-    <t>bhui32</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -813,6 +810,9 @@
   </si>
   <si>
     <t>Pixel 6 Pro API 30</t>
+  </si>
+  <si>
+    <t>bhui33</t>
   </si>
 </sst>
 </file>
@@ -1820,8 +1820,8 @@
   </sheetPr>
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="18"/>
     </row>
@@ -1879,56 +1879,56 @@
         <v>4</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="H6" s="27"/>
     </row>
     <row r="7" spans="4:8" ht="15" customHeight="1">
       <c r="D7" s="19"/>
       <c r="E7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>6</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>7</v>
       </c>
       <c r="H7" s="27"/>
     </row>
     <row r="8" spans="4:8" ht="15" customHeight="1">
       <c r="D8" s="46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="30"/>
       <c r="G8" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="4:8" ht="15" customHeight="1">
       <c r="D9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>12</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="15" customHeight="1">
       <c r="D10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="34">
         <v>5645625</v>
@@ -1936,29 +1936,29 @@
     </row>
     <row r="11" spans="4:8" ht="15" customHeight="1">
       <c r="D11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="15" customHeight="1">
       <c r="D12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="21">
         <v>564959595</v>
@@ -1966,44 +1966,44 @@
     </row>
     <row r="13" spans="4:8" ht="15" customHeight="1">
       <c r="D13" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6">
         <v>751001</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="15" customHeight="1">
       <c r="D14" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6">
         <v>23654789</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>27</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="15" customHeight="1">
       <c r="D15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="21">
         <v>12345678</v>
@@ -2011,17 +2011,17 @@
     </row>
     <row r="16" spans="4:8" ht="15" customHeight="1">
       <c r="D16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="15" customHeight="1">
@@ -2029,10 +2029,10 @@
       <c r="E17" s="6"/>
       <c r="F17" s="33"/>
       <c r="G17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="4:8" ht="15" customHeight="1">
@@ -2040,10 +2040,10 @@
       <c r="E18" s="6"/>
       <c r="F18" s="33"/>
       <c r="G18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="15" customHeight="1">
@@ -2051,10 +2051,10 @@
       <c r="E19" s="6"/>
       <c r="F19" s="33"/>
       <c r="G19" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="15" customHeight="1">
@@ -2062,7 +2062,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="33"/>
       <c r="G20" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="21">
         <v>54465</v>
@@ -2073,19 +2073,19 @@
       <c r="E21" s="38"/>
       <c r="F21" s="39"/>
       <c r="G21" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="4:8" ht="15" customHeight="1">
       <c r="E23" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2138,29 +2138,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="59" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
@@ -2169,33 +2169,33 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="59" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>53</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
@@ -2204,24 +2204,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2">
         <v>1.23</v>
@@ -2231,51 +2231,51 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -2297,47 +2297,47 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="49">
         <v>2.34</v>
@@ -3353,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3369,29 +3369,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="E2" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
@@ -3400,33 +3400,33 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
@@ -3435,24 +3435,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7">
         <v>1.56</v>
@@ -3462,51 +3462,51 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
@@ -3522,47 +3522,47 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="49">
         <v>1.34</v>
@@ -4582,7 +4582,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4597,29 +4597,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
@@ -4628,33 +4628,33 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
@@ -4663,27 +4663,27 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="C6" s="12">
         <v>7.09</v>
@@ -4692,51 +4692,51 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
@@ -4759,47 +4759,47 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>6</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>7</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="49">
         <v>2.34</v>
@@ -4840,7 +4840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4855,29 +4855,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E2" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
@@ -4886,33 +4886,33 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="E4" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
@@ -4921,24 +4921,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2">
         <v>1.56</v>
@@ -4948,51 +4948,51 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -5014,47 +5014,47 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="65">
         <v>1.34</v>
